--- a/Examples/test/test_model.xlsx
+++ b/Examples/test/test_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C8419-7609-41FE-8D25-9C29415A1C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B71FAD-A352-44B0-A9A7-194560896600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$4</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$B$4</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$7</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -891,8 +891,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,13 +924,13 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +938,13 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,13 +952,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,13 +966,13 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,13 +980,13 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +998,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D6</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1011,7 +1011,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/Examples/test/test_model.xlsx
+++ b/Examples/test/test_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B71FAD-A352-44B0-A9A7-194560896600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099F2BFA-22AC-4AF7-A4E5-E35486E24CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>key</t>
   </si>
@@ -239,22 +239,16 @@
     <t>F2+F4</t>
   </si>
   <si>
-    <t>F4+F7</t>
-  </si>
-  <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F7+F8</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Singular</t>
+    <t>F5-F7</t>
+  </si>
+  <si>
+    <t>F6-F7</t>
+  </si>
+  <si>
+    <t>Operation</t>
   </si>
 </sst>
 </file>
@@ -862,10 +856,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +949,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,13 +974,13 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1003,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,24 +1014,18 @@
     <col min="1" max="1" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Flows!A2</f>
         <v>F1</v>
@@ -1046,16 +1034,10 @@
         <v>110</v>
       </c>
       <c r="C2">
-        <v>110</v>
-      </c>
-      <c r="D2">
-        <v>110</v>
-      </c>
-      <c r="E2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Flows!A3</f>
         <v>F2</v>
@@ -1066,14 +1048,8 @@
       <c r="C3">
         <v>60</v>
       </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Flows!A4</f>
         <v>F3</v>
@@ -1084,14 +1060,8 @@
       <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Flows!A5</f>
         <v>F4</v>
@@ -1100,16 +1070,10 @@
         <v>40</v>
       </c>
       <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Flows!A6</f>
         <v>F5</v>
@@ -1120,14 +1084,8 @@
       <c r="C6">
         <v>30</v>
       </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Flows!A7</f>
         <v>F6</v>
@@ -1138,14 +1096,8 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Flows!A8</f>
         <v>F7</v>
@@ -1154,30 +1106,18 @@
         <v>10</v>
       </c>
       <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
       <c r="C9">
-        <v>0.1</v>
-      </c>
-      <c r="D9">
-        <v>1E-3</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
